--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-27T14:58:01+00:00</t>
+    <t>2025-06-13T10:40:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-13T10:40:28+00:00</t>
+    <t>2025-06-17T13:53:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-17T13:53:20+00:00</t>
+    <t>2025-06-18T12:49:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-18T12:49:42+00:00</t>
+    <t>2025-06-19T12:31:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-19T12:31:56+00:00</t>
+    <t>2025-06-19T12:56:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-19T12:56:09+00:00</t>
+    <t>2025-06-19T13:39:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-19T13:39:18+00:00</t>
+    <t>2025-06-20T10:31:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-20T10:31:38+00:00</t>
+    <t>2025-06-20T12:06:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-20T12:06:52+00:00</t>
+    <t>2025-06-20T16:26:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-20T16:26:05+00:00</t>
+    <t>2025-06-23T15:53:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T15:53:38+00:00</t>
+    <t>2025-06-25T07:29:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-25T07:29:13+00:00</t>
+    <t>2025-06-25T08:20:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-25T08:20:21+00:00</t>
+    <t>2025-07-01T07:34:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-01T07:34:24+00:00</t>
+    <t>2025-07-01T14:16:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-01T14:16:04+00:00</t>
+    <t>2025-07-01T15:09:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-01T15:09:42+00:00</t>
+    <t>2025-07-09T16:03:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-09T16:03:26+00:00</t>
+    <t>2025-08-18T13:46:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-18T13:46:32+00:00</t>
+    <t>2025-08-19T13:46:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-19T13:46:05+00:00</t>
+    <t>2025-08-19T14:52:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-19T14:52:01+00:00</t>
+    <t>2025-08-22T10:17:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-22T10:17:30+00:00</t>
+    <t>2025-08-22T12:56:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-22T12:56:47+00:00</t>
+    <t>2025-08-22T13:23:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-22T13:23:20+00:00</t>
+    <t>2025-08-22T14:29:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-22T14:29:38+00:00</t>
+    <t>2025-08-22T15:03:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-22T15:03:40+00:00</t>
+    <t>2025-08-22T16:11:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-22T16:11:41+00:00</t>
+    <t>2025-08-25T06:59:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-25T06:59:32+00:00</t>
+    <t>2025-08-25T09:39:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-25T09:39:34+00:00</t>
+    <t>2025-08-25T11:15:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-25T11:15:03+00:00</t>
+    <t>2025-08-26T14:01:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-26T14:01:05+00:00</t>
+    <t>2025-08-26T14:47:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-26T14:47:20+00:00</t>
+    <t>2025-08-26T15:19:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-26T15:19:13+00:00</t>
+    <t>2025-08-28T09:04:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-28T09:04:45+00:00</t>
+    <t>2025-08-28T13:33:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-28T13:33:26+00:00</t>
+    <t>2025-08-28T13:53:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-28T13:53:19+00:00</t>
+    <t>2025-08-29T14:53:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-29T14:53:04+00:00</t>
+    <t>2025-09-02T14:06:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-02T14:06:24+00:00</t>
+    <t>2025-09-02T14:14:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-02T14:14:48+00:00</t>
+    <t>2025-09-02T15:31:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-02T15:31:32+00:00</t>
+    <t>2025-09-02T16:40:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-02T16:40:07+00:00</t>
+    <t>2025-09-03T15:56:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-03T15:56:47+00:00</t>
+    <t>2025-09-03T16:17:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-03T16:17:34+00:00</t>
+    <t>2025-09-04T08:14:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-04T08:14:53+00:00</t>
+    <t>2025-09-04T08:29:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-04T08:29:09+00:00</t>
+    <t>2025-09-04T13:01:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-04T13:01:54+00:00</t>
+    <t>2025-09-04T13:30:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-04T13:30:13+00:00</t>
+    <t>2025-09-04T16:12:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-04T16:12:35+00:00</t>
+    <t>2025-09-08T10:20:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T10:20:18+00:00</t>
+    <t>2025-09-08T13:03:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T13:03:11+00:00</t>
+    <t>2025-09-08T13:31:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-sos-location-aggregator.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2913" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2913" uniqueCount="507">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T13:31:50+00:00</t>
+    <t>2025-09-09T08:15:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1396,7 +1396,7 @@
     <t>Aa resource (or, for logical models, the URI of the logical model).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
   </si>
   <si>
     <t>Reference.type</t>
@@ -1487,6 +1487,9 @@
   </si>
   <si>
     <t>Location.partOf.type</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
   </si>
   <si>
     <t>Location.partOf.identifier</t>
@@ -9772,7 +9775,7 @@
         <v>442</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>443</v>
+        <v>472</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>74</v>
@@ -9813,10 +9816,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9921,10 +9924,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10029,10 +10032,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10058,13 +10061,13 @@
         <v>400</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -10114,7 +10117,7 @@
         <v>74</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>75</v>
@@ -10129,7 +10132,7 @@
         <v>95</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>74</v>
@@ -10137,10 +10140,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10243,10 +10246,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10351,10 +10354,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10461,10 +10464,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10490,10 +10493,10 @@
         <v>165</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -10523,10 +10526,10 @@
         <v>217</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>74</v>
@@ -10544,7 +10547,7 @@
         <v>74</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>75</v>
@@ -10559,7 +10562,7 @@
         <v>95</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>74</v>
@@ -10567,10 +10570,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -10593,13 +10596,13 @@
         <v>74</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -10650,7 +10653,7 @@
         <v>74</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>75</v>
@@ -10665,7 +10668,7 @@
         <v>95</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>74</v>
@@ -10673,10 +10676,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -10699,13 +10702,13 @@
         <v>74</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -10756,7 +10759,7 @@
         <v>74</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>75</v>
@@ -10771,7 +10774,7 @@
         <v>95</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>74</v>
@@ -10779,10 +10782,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -10805,13 +10808,13 @@
         <v>74</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -10862,7 +10865,7 @@
         <v>74</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>75</v>
@@ -10877,7 +10880,7 @@
         <v>95</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>74</v>
@@ -10885,10 +10888,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -10914,10 +10917,10 @@
         <v>97</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -10968,7 +10971,7 @@
         <v>74</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>75</v>
@@ -10991,10 +10994,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11017,17 +11020,17 @@
         <v>74</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>74</v>
@@ -11076,7 +11079,7 @@
         <v>74</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>75</v>
